--- a/GA_bNa_bCa_NaK/Best_ind_ctrl5.xlsx
+++ b/GA_bNa_bCa_NaK/Best_ind_ctrl5.xlsx
@@ -492,37 +492,37 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1351222997597735</v>
+        <v>1.854615147692891</v>
       </c>
       <c r="B2" t="n">
-        <v>4.637257653390351</v>
+        <v>1.634210481476953</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2272479786535967</v>
+        <v>0.6575461625423142</v>
       </c>
       <c r="D2" t="n">
-        <v>2.342139227497825</v>
+        <v>1.874215666971725</v>
       </c>
       <c r="E2" t="n">
-        <v>8.596648789451974</v>
+        <v>2.210319181816895</v>
       </c>
       <c r="F2" t="n">
-        <v>6.884103425877091</v>
+        <v>3.19857088575655</v>
       </c>
       <c r="G2" t="n">
-        <v>5.491029960645439</v>
+        <v>0.1702096887455273</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3574709822089333</v>
+        <v>0.229675397341001</v>
       </c>
       <c r="I2" t="n">
-        <v>6.582754338007105</v>
+        <v>0.7478921163247956</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8455148533698245</v>
+        <v>0.249788312681757</v>
       </c>
       <c r="K2" t="n">
-        <v>3.387277246096953</v>
+        <v>0.2119327238547077</v>
       </c>
     </row>
   </sheetData>
